--- a/projekt_mintamenet.xlsx
+++ b/projekt_mintamenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SFJ_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F3310B-A546-4734-B356-D3B793189D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D7C5B-2A30-4580-B836-2194467A9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39ABA147-C24E-9C46-B36D-D7DDC8F00C1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Melinda</t>
-  </si>
-  <si>
-    <t>esetdiagram</t>
   </si>
   <si>
     <t>0. Kezdőoldal - introval</t>
@@ -914,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7F18-5A48-1C46-BD03-BEEDB5094022}">
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,14 +977,14 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E37" si="0">F3-D3</f>
-        <v>7</v>
+        <f t="shared" ref="E3:E36" si="0">F3-D3</f>
+        <v>22</v>
       </c>
       <c r="F3" s="8">
         <v>44598</v>
@@ -1002,14 +999,14 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>44592</v>
@@ -1019,49 +1016,47 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="27">
+        <v>44593</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="29">
+        <v>44620</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <v>44592</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E6" s="28">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F6" s="29">
-        <v>44620</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="31"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -1075,12 +1070,14 @@
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8">
-        <v>44592</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>44598</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -1101,81 +1098,81 @@
         <v>44598</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27">
+        <v>44591</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="29">
+        <v>44620</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44620</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44598</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44598</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E10" s="28">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F10" s="29">
-        <v>44620</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44620</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -1185,59 +1182,59 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8">
-        <v>44598</v>
+        <v>44620</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F13" s="8">
-        <v>44620</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="27">
+        <v>44591</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F13" s="29">
+        <v>44635</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E14" s="28">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="8">
         <v>44635</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
@@ -1261,7 +1258,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
@@ -1281,151 +1278,149 @@
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F17" s="8">
-        <v>44635</v>
+    </row>
+    <row r="17" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27">
+        <v>44591</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="29">
+        <v>44620</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E18" s="28">
-        <f t="shared" si="0"/>
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="29">
-        <v>44620</v>
-      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>-44591</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="C20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="27">
+        <v>44591</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="29">
+        <v>44620</v>
+      </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E21" s="28">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F21" s="29">
-        <v>44620</v>
-      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6">
+        <v>44591</v>
+      </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>-44591</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="27">
+        <v>44591</v>
+      </c>
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -1436,39 +1431,41 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>44592</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44591</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="2:8" s="32" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="27">
-        <v>44591</v>
-      </c>
-      <c r="E25" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="29">
-        <v>44592</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>10</v>
@@ -1482,15 +1479,13 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>36</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>10</v>
@@ -1504,11 +1499,11 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>37</v>
       </c>
@@ -1524,13 +1519,15 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>10</v>
@@ -1539,21 +1536,21 @@
         <v>44591</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="0"/>
+        <f>F29-D29</f>
         <v>-44591</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="30" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1561,19 +1558,19 @@
         <v>44591</v>
       </c>
       <c r="E30" s="7">
-        <f>F30-D30</f>
-        <v>-44591</v>
-      </c>
-      <c r="F30" s="14"/>
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44620</v>
+      </c>
       <c r="G30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1584,10 +1581,10 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F31" s="6">
-        <v>44620</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>44592</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>12</v>
@@ -1595,7 +1592,7 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1606,15 +1603,13 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>44592</v>
-      </c>
+        <v>-44591</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
@@ -1638,7 +1633,7 @@
     </row>
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>10</v>
@@ -1656,9 +1651,9 @@
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>10</v>
@@ -1674,15 +1669,13 @@
       <c r="G35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="H35" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="6">
         <v>44591</v>
       </c>
@@ -1690,33 +1683,15 @@
         <f t="shared" si="0"/>
         <v>-44591</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6">
-        <v>44591</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>-44591</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1728,7 +1703,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C37</xm:sqref>
+          <xm:sqref>C2:C36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1756,7 +1731,7 @@
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
@@ -1766,17 +1741,17 @@
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/projekt_mintamenet.xlsx
+++ b/projekt_mintamenet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>Projektmunka terv</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>események oldal váz</t>
-  </si>
-  <si>
-    <t>térképes kereső váz</t>
   </si>
   <si>
     <t>új esemény rögzítése aloldal váz</t>
@@ -827,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,7 +906,7 @@
         <v>44576</v>
       </c>
       <c r="E3" s="22">
-        <f t="shared" ref="E3:E28" si="0">F3-D3</f>
+        <f t="shared" ref="E3:E27" si="0">F3-D3</f>
         <v>16</v>
       </c>
       <c r="F3" s="8">
@@ -944,7 +941,7 @@
     </row>
     <row r="5" spans="2:8" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>9</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -1164,17 +1161,17 @@
     </row>
     <row r="15" spans="2:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="21">
-        <v>44620</v>
+        <v>44594</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8">
         <v>44635</v>
@@ -1186,29 +1183,29 @@
     </row>
     <row r="16" spans="2:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="21">
-        <v>44594</v>
+        <v>44636</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
-        <v>44635</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>19</v>
+        <v>44646</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>12</v>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -1218,18 +1215,18 @@
       </c>
       <c r="E17" s="22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17" s="8">
-        <v>44646</v>
+        <v>44650</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1273,7 +1270,7 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1295,7 +1292,7 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1339,7 +1336,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1361,7 +1358,7 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1428,7 +1425,7 @@
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -1448,69 +1445,69 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="2:8" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="21">
-        <v>44636</v>
+        <v>44592</v>
       </c>
       <c r="E28" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F28" s="8">
+        <f t="shared" ref="E28:E38" si="1">F28-D28</f>
+        <v>58</v>
+      </c>
+      <c r="F28" s="23">
         <v>44650</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="21">
+      <c r="G28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
         <v>44592</v>
       </c>
-      <c r="E29" s="22">
-        <f t="shared" ref="E29:E39" si="1">F29-D29</f>
-        <v>58</v>
-      </c>
-      <c r="F29" s="23">
-        <v>44650</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="25"/>
+      <c r="E29" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44598</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="6">
-        <v>44592</v>
+        <v>44599</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" s="6">
-        <v>44598</v>
+        <v>44607</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="10"/>
     </row>
@@ -1522,23 +1519,23 @@
         <v>9</v>
       </c>
       <c r="D31" s="6">
-        <v>44599</v>
+        <v>44608</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
@@ -1548,63 +1545,63 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F32" s="6">
-        <v>44635</v>
+        <v>44650</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="6">
-        <v>44608</v>
+        <v>44636</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6">
         <v>44650</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
+    <row r="34" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="6">
-        <v>44636</v>
-      </c>
-      <c r="E34" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E34" s="29">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F34" s="6">
         <v>44650</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>44</v>
+      <c r="G34" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>13</v>
+    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>9</v>
@@ -1614,10 +1611,10 @@
       </c>
       <c r="E35" s="29">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F35" s="6">
-        <v>44650</v>
+        <v>44592</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>20</v>
@@ -1626,42 +1623,42 @@
     </row>
     <row r="36" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F36" s="6">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6">
-        <v>44593</v>
+        <v>44607</v>
       </c>
       <c r="E37" s="29">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F37" s="6">
-        <v>44606</v>
+        <v>44609</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>20</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>9</v>
@@ -1680,61 +1677,39 @@
       </c>
       <c r="E38" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F38" s="6">
-        <v>44609</v>
+        <v>43</v>
+      </c>
+      <c r="F38" s="31">
+        <v>44650</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>42</v>
+    </row>
+    <row r="39" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="6">
-        <v>44607</v>
+        <v>44562</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F39" s="31">
+        <f t="shared" ref="E39" si="2">F39-D39</f>
+        <v>88</v>
+      </c>
+      <c r="F39" s="6">
         <v>44650</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B40" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="6">
-        <v>44562</v>
-      </c>
-      <c r="E40" s="29">
-        <f t="shared" ref="E40" si="2">F40-D40</f>
-        <v>88</v>
-      </c>
-      <c r="F40" s="6">
-        <v>44650</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,7 +1721,7 @@
           <x14:formula1>
             <xm:f>'Háttér adatok'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C40</xm:sqref>
+          <xm:sqref>C2:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1803,12 +1778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010074FF4FF2BB26F94CB343786952278FF2" ma:contentTypeVersion="2" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="a78af40da531e8857ec9cf101bf6ff16">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d859ef5-2cbf-4978-8265-52d9786775e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c9834a266bff03071b9517565f46956" ns2:_="">
     <xsd:import namespace="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
@@ -1940,6 +1909,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1950,22 +1925,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A92CFD-B1FA-4FCA-AF50-DC9E9DC51401}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1983,6 +1942,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}">
   <ds:schemaRefs>

--- a/projekt_mintamenet.xlsx
+++ b/projekt_mintamenet.xlsx
@@ -103,18 +103,9 @@
     <t>bemutatkozó szöveg váz</t>
   </si>
   <si>
-    <t>sportágak menü oldal váz</t>
-  </si>
-  <si>
-    <t>barátaim menü oldal váz</t>
-  </si>
-  <si>
     <t>barátok jelölése oldal váz</t>
   </si>
   <si>
-    <t>események oldal váz</t>
-  </si>
-  <si>
     <t>új esemény rögzítése aloldal váz</t>
   </si>
   <si>
@@ -179,6 +170,15 @@
   </si>
   <si>
     <t>Béla/Kristóf/Attila</t>
+  </si>
+  <si>
+    <t>1. sportágak menü oldal váz</t>
+  </si>
+  <si>
+    <t>2. barátaim menü oldal váz</t>
+  </si>
+  <si>
+    <t>3. események oldal váz</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="&quot;H-&quot;0000"/>
     <numFmt numFmtId="165" formatCode="0&quot; day&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +253,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -423,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -515,7 +524,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -824,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,7 +856,7 @@
   <dimension ref="B1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -883,7 +904,7 @@
       <c r="D2" s="21">
         <v>44562</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="33">
         <f>F2-D2</f>
         <v>88</v>
       </c>
@@ -899,13 +920,13 @@
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="35">
         <v>44576</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="32">
         <f t="shared" ref="E3:E27" si="0">F3-D3</f>
         <v>16</v>
       </c>
@@ -921,13 +942,13 @@
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="35">
         <v>44562</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -941,15 +962,15 @@
     </row>
     <row r="5" spans="2:8" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21">
+        <v>26</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="35">
         <v>44594</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -965,13 +986,13 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="35">
         <v>44594</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -987,13 +1008,13 @@
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="35">
         <v>44594</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1009,13 +1030,13 @@
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35">
         <v>44610</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1031,13 +1052,13 @@
       <c r="B9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="35">
         <v>44620</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1050,16 +1071,16 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35">
         <v>44620</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1072,16 +1093,16 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="B11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="35">
         <v>44620</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1094,16 +1115,16 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="35">
         <v>44620</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1116,16 +1137,16 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="B13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="35">
         <v>44620</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1139,15 +1160,15 @@
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="35">
         <v>44620</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1161,15 +1182,15 @@
     </row>
     <row r="15" spans="2:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="21">
+        <v>44</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35">
         <v>44594</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -1205,7 +1226,7 @@
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -1227,7 +1248,7 @@
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
@@ -1249,7 +1270,7 @@
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -1271,7 +1292,7 @@
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -1293,7 +1314,7 @@
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1315,7 +1336,7 @@
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1337,7 +1358,7 @@
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -1359,7 +1380,7 @@
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -1381,7 +1402,7 @@
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
@@ -1403,7 +1424,7 @@
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
@@ -1425,7 +1446,7 @@
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -1463,13 +1484,13 @@
         <v>44650</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -1485,13 +1506,13 @@
         <v>44598</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>9</v>
@@ -1507,13 +1528,13 @@
         <v>44607</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
@@ -1529,13 +1550,13 @@
         <v>44635</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
@@ -1551,13 +1572,13 @@
         <v>44650</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>9</v>
@@ -1573,7 +1594,7 @@
         <v>44650</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -1623,7 +1644,7 @@
     </row>
     <row r="36" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>9</v>
@@ -1645,7 +1666,7 @@
     </row>
     <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>9</v>
@@ -1667,7 +1688,7 @@
     </row>
     <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>9</v>
@@ -1677,10 +1698,10 @@
       </c>
       <c r="E38" s="29">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F38" s="31">
-        <v>44650</v>
+        <v>7</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44614</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>20</v>
@@ -1688,7 +1709,7 @@
     </row>
     <row r="39" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B39" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>9</v>
@@ -1704,7 +1725,7 @@
         <v>44650</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -1778,6 +1799,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010074FF4FF2BB26F94CB343786952278FF2" ma:contentTypeVersion="2" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="a78af40da531e8857ec9cf101bf6ff16">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d859ef5-2cbf-4978-8265-52d9786775e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c9834a266bff03071b9517565f46956" ns2:_="">
     <xsd:import namespace="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
@@ -1909,12 +1936,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1925,6 +1946,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A92CFD-B1FA-4FCA-AF50-DC9E9DC51401}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1942,22 +1979,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCF378-3613-4098-AEC9-03B7F93F285D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d859ef5-2cbf-4978-8265-52d9786775e6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DEA722-1A89-4570-ACBD-2A7F40E42575}">
   <ds:schemaRefs>
